--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid709261"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid593697"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid593697"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid48810"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid48810"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid950413"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid950413"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid143019"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid143019"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid375167"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid375167"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid287002"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>XD Date</t>
   </si>
@@ -30,126 +30,6 @@
   </si>
   <si>
     <t>0.026</t>
-  </si>
-  <si>
-    <t>16/09/2022</t>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
-    <t>16/09/2021</t>
-  </si>
-  <si>
-    <t>0.045</t>
-  </si>
-  <si>
-    <t>16/09/2020</t>
-  </si>
-  <si>
-    <t>0.029</t>
-  </si>
-  <si>
-    <t>17/09/2019</t>
-  </si>
-  <si>
-    <t>0.044</t>
-  </si>
-  <si>
-    <t>18/09/2018</t>
-  </si>
-  <si>
-    <t>0.036</t>
-  </si>
-  <si>
-    <t>18/09/2017</t>
-  </si>
-  <si>
-    <t>16/09/2016</t>
-  </si>
-  <si>
-    <t>04/10/2016</t>
-  </si>
-  <si>
-    <t>0.037</t>
-  </si>
-  <si>
-    <t>16/09/2015</t>
-  </si>
-  <si>
-    <t>17/09/2015</t>
-  </si>
-  <si>
-    <t>0.041</t>
-  </si>
-  <si>
-    <t>16/09/2014</t>
-  </si>
-  <si>
-    <t>22/09/2014</t>
-  </si>
-  <si>
-    <t>17/09/2013</t>
-  </si>
-  <si>
-    <t>23/09/2013</t>
-  </si>
-  <si>
-    <t>18/09/2012</t>
-  </si>
-  <si>
-    <t>27/09/2012</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>16/09/2011</t>
-  </si>
-  <si>
-    <t>26/09/2011</t>
-  </si>
-  <si>
-    <t>16/09/2010</t>
-  </si>
-  <si>
-    <t>22/09/2010</t>
-  </si>
-  <si>
-    <t>0.033</t>
-  </si>
-  <si>
-    <t>16/09/2009</t>
-  </si>
-  <si>
-    <t>01/10/2009</t>
-  </si>
-  <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t>16/09/2008</t>
-  </si>
-  <si>
-    <t>01/10/2008</t>
-  </si>
-  <si>
-    <t>0.034</t>
-  </si>
-  <si>
-    <t>18/09/2007</t>
-  </si>
-  <si>
-    <t>25/09/2007</t>
-  </si>
-  <si>
-    <t>0.050</t>
-  </si>
-  <si>
-    <t>18/09/2006</t>
-  </si>
-  <si>
-    <t>25/09/2006</t>
   </si>
 </sst>
 </file>
@@ -500,193 +380,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid287002"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid629802"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,10 +26,133 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>17/09/2024</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
     <t>18/09/2023</t>
   </si>
   <si>
     <t>0.026</t>
+  </si>
+  <si>
+    <t>16/09/2022</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>16/09/2021</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>16/09/2020</t>
+  </si>
+  <si>
+    <t>17/09/2019</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>18/09/2018</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>18/09/2017</t>
+  </si>
+  <si>
+    <t>16/09/2016</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>16/09/2015</t>
+  </si>
+  <si>
+    <t>17/09/2015</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>16/09/2014</t>
+  </si>
+  <si>
+    <t>22/09/2014</t>
+  </si>
+  <si>
+    <t>17/09/2013</t>
+  </si>
+  <si>
+    <t>23/09/2013</t>
+  </si>
+  <si>
+    <t>18/09/2012</t>
+  </si>
+  <si>
+    <t>27/09/2012</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>16/09/2011</t>
+  </si>
+  <si>
+    <t>26/09/2011</t>
+  </si>
+  <si>
+    <t>16/09/2010</t>
+  </si>
+  <si>
+    <t>22/09/2010</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>16/09/2009</t>
+  </si>
+  <si>
+    <t>01/10/2009</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>16/09/2008</t>
+  </si>
+  <si>
+    <t>01/10/2008</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>18/09/2007</t>
+  </si>
+  <si>
+    <t>25/09/2007</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>18/09/2006</t>
+  </si>
+  <si>
+    <t>25/09/2006</t>
   </si>
 </sst>
 </file>
@@ -380,6 +503,204 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.8" right="1.8" top="1.8999999999999999" bottom="1.8999999999999999" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="100" paperSize="0" firstPageNumber="1" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid629802"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid414242"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid414242"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid967356"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid967356"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid588507"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid588507"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid156671"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid156671"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid767578"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid767578"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid77182"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid77182"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid4876"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid4876"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid183547"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid183547"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid639418"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>XD Date</t>
   </si>
@@ -26,6 +26,12 @@
     <t>Gross Dividend</t>
   </si>
   <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
     <t>17/09/2024</t>
   </si>
   <si>
@@ -39,9 +45,6 @@
   </si>
   <si>
     <t>16/09/2022</t>
-  </si>
-  <si>
-    <t>0.027</t>
   </si>
   <si>
     <t>16/09/2021</t>
@@ -533,18 +536,18 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -555,29 +558,29 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -585,120 +588,131 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
-        <v>43</v>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid639418"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid162927"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid162927"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid2366"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid2366"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid628287"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
+++ b/data/GreatLink/GreatLink Global Real Estate Securities_Dividends.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DividendHistory" sheetId="1" r:id="GemRid628287"/>
+    <sheet name="DividendHistory" sheetId="1" r:id="GemRid497420"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
